--- a/base/submissions/iarc_submission_1.xlsx
+++ b/base/submissions/iarc_submission_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\AIRR\gldb-website\base\submissions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684D054C-0957-49FE-AE2A-D76C88F28C41}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3871DDCD-0413-4973-9330-1A9B7020B2F0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Submission" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="433">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1370,12 +1370,57 @@
   <si>
     <t>caggtgcagctggtgcagtctggagctgaggtgaagaagcctagagcctcagtgaaggtctcctgcaaggcttctggttacacctttaccagctactatatgcactgggtgtgacaggcccctgaacaagggcttgagtggatgggatggatcaacacttacaatggtaacacaaactacccacagaagctccagggcagagtcaccatgaccagagacacatccacgagcacagcctac</t>
   </si>
+  <si>
+    <t>Acknowledgements</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>institution_name</t>
+  </si>
+  <si>
+    <t>ORCID_id</t>
+  </si>
+  <si>
+    <t>Explanation of fields</t>
+  </si>
+  <si>
+    <t>Full name of individual</t>
+  </si>
+  <si>
+    <t>Individual's department and institution name</t>
+  </si>
+  <si>
+    <t>Individual's ORCID Id, if available</t>
+  </si>
+  <si>
+    <t>Mel Smyth</t>
+  </si>
+  <si>
+    <t>University of Kent</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-1912-3935</t>
+  </si>
+  <si>
+    <t>Griff Jones</t>
+  </si>
+  <si>
+    <t>RMIT University</t>
+  </si>
+  <si>
+    <t>Anthony Minghella</t>
+  </si>
+  <si>
+    <t>University of Texas MD Anderson Cancer Center</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1432,6 +1477,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1631,7 +1681,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1682,6 +1732,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1995,10 +2048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:D23"/>
+  <dimension ref="A3:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2157,6 +2210,169 @@
       </c>
       <c r="D23" s="11" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C29" t="s">
+        <v>427</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C30" t="s">
+        <v>430</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C31" t="s">
+        <v>432</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C32" t="s">
+        <v>427</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C33" t="s">
+        <v>430</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C34" t="s">
+        <v>432</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C35" t="s">
+        <v>427</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C36" t="s">
+        <v>430</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C37" t="s">
+        <v>432</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="13" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -2318,10 +2534,10 @@
       <c r="D18" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="42" t="s">
         <v>379</v>
       </c>
     </row>
@@ -2335,8 +2551,8 @@
       <c r="D19" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
     </row>
     <row r="20" spans="2:6" ht="120">
       <c r="B20" s="6" t="s">
@@ -3077,7 +3293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+    <sheetView topLeftCell="B37" workbookViewId="0">
       <selection activeCell="B50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
@@ -6709,10 +6925,10 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="409.5" customHeight="1">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="43" t="s">
         <v>401</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="C13" s="43"/>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1"/>
